--- a/biology/Médecine/Louis-Ferdinand_de_Bavière/Louis-Ferdinand_de_Bavière.xlsx
+++ b/biology/Médecine/Louis-Ferdinand_de_Bavière/Louis-Ferdinand_de_Bavière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis-Ferdinand_de_Bavi%C3%A8re</t>
+          <t>Louis-Ferdinand_de_Bavière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis-Ferdinand de Wittelsbach y Borbon, prince de Bavière, infant d'Espagne, est un général de cavalerie et un docteur en médecine d'origine bavaroise, né le 22 octobre 1859 à Madrid et mort le 23 novembre 1949 à Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis-Ferdinand_de_Bavi%C3%A8re</t>
+          <t>Louis-Ferdinand_de_Bavière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Artiste et philanthrope, général bavarois de cavalerie, général de la Santé des corps de l'armée espagnole, médecin-chirurgien de l'Académie d'Espagne, le prince a étudié la chirurgie et la gynécologie aux universités de Heidelberg et de Munich (anciennes possessions du royaume de Bavière). Il est également membre d'honneur de la société allemande de gynécologie et obstétrique.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louis-Ferdinand_de_Bavi%C3%A8re</t>
+          <t>Louis-Ferdinand_de_Bavière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Famille et mariage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le prince est un proche parent de la plupart des têtes couronnées européennes catholiques :
 Membre de la Maison de Wittelsbach, l'infant est le petit-fils du roi Louis Ier de Bavière et de l'infant François de Paule d'Espagne. Il est le fils du prince héritier de Grèce, Adalbert de Bavière (1828 - 1875) (frère du roi Othon Ier de Grèce (duc de Bavière élu roi en 1830 mais déchu en 1862)) et de son épouse Amélie d'Espagne (1834 - 1905), sœur de l'infant François d'Assise, roi-consort d'Espagne.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Louis-Ferdinand_de_Bavi%C3%A8re</t>
+          <t>Louis-Ferdinand_de_Bavière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À Munich, le pont Ludwig-Ferdinand est nommé en son honneur.
 </t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Louis-Ferdinand_de_Bavi%C3%A8re</t>
+          <t>Louis-Ferdinand_de_Bavière</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Ancêtres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ascendance de Louis-Ferdinand de Bavière
